--- a/counts/counts_formatted.xlsx
+++ b/counts/counts_formatted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6760,6 +6760,381 @@
         </is>
       </c>
     </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>p01</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>reporting.csv</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>googledocs</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>110</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>p02</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>reporting.csv</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>googledocs</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>154</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>p03</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>reporting.csv</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>googledocs</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>118</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>p04</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>reporting.csv</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>googledocs</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>140</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>p05</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>reporting.csv</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>googledocs</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>127</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>p06</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>reporting.csv</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>googledocs</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>130</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>p07</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>reporting.csv</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>googledocs</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>127</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>p08</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>reporting.csv</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>googledocs</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>59</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>p09</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>reporting.csv</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>googledocs</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>99</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>p10</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>reporting.csv</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>googledocs</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>101</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>p11</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>reporting.csv</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>googledocs</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>64</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>p12</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>reporting.csv</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>googledocs</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>83</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>p13</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>reporting.csv</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>googledocs</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>67</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>p14</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>reporting.csv</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>googledocs</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>142</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>p16</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>reporting.csv</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>googledocs</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>63</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>.csv</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
